--- a/helminthspeciesfinal.xlsx
+++ b/helminthspeciesfinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EF477F-75F5-A249-9FC1-2EBF11138943}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F1101A8-9891-8848-99BF-C133E299BE6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{C5A6A8CE-F33D-3D41-B60F-815C0CC5C118}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="237">
   <si>
     <t>references</t>
   </si>
@@ -645,30 +645,18 @@
     <t>Artyfechinostomum oraoni</t>
   </si>
   <si>
-    <t>Tribe in Calcutta</t>
-  </si>
-  <si>
     <t>Bertiella satyri</t>
   </si>
   <si>
-    <t>Also unclear, might be same as B. studeri?</t>
-  </si>
-  <si>
     <t>Centrocestus kurokawai</t>
   </si>
   <si>
-    <t>Journals/textbooks say yes but can't find a source for this</t>
-  </si>
-  <si>
     <t>Diphyllobothrium lanceolatum</t>
   </si>
   <si>
     <t>Heterobilharzia americana</t>
   </si>
   <si>
-    <t>Causes brief skin infection</t>
-  </si>
-  <si>
     <t>Mammomonogamus nasicola</t>
   </si>
   <si>
@@ -681,84 +669,48 @@
     <t>Ornithobilharzia turkestanica</t>
   </si>
   <si>
-    <t>Can penetrate the skin and cause dermatitis</t>
-  </si>
-  <si>
     <t>Philophthalmus gralli</t>
   </si>
   <si>
     <t>Procerovum varium</t>
   </si>
   <si>
-    <t>Recently discovered to be an ocular parasite in humans (2016)</t>
-  </si>
-  <si>
     <t>Prohemistomum vivax</t>
   </si>
   <si>
-    <t>Rare</t>
-  </si>
-  <si>
     <t>Trichinella murrelli</t>
   </si>
   <si>
-    <t>Outbreak in 2008</t>
-  </si>
-  <si>
     <t>Trichostrongylus lerouxi</t>
   </si>
   <si>
-    <t>Case in Iran</t>
-  </si>
-  <si>
     <t>Acanthoparyphium kurogamo</t>
   </si>
   <si>
-    <t>Supposedly recovered from humans about 20 years ago</t>
-  </si>
-  <si>
     <t>Anisakis pegreffii</t>
   </si>
   <si>
-    <t>First case semi-recent (2011)</t>
-  </si>
-  <si>
     <t>Brugia ceylonensis</t>
   </si>
   <si>
-    <t>One case in 2000</t>
-  </si>
-  <si>
     <t>Clonorchis viverrini</t>
   </si>
   <si>
-    <t>Role in cancer?</t>
-  </si>
-  <si>
     <t>Cysticercus racemosus</t>
   </si>
   <si>
     <t>Diploscapter coronata</t>
   </si>
   <si>
-    <t>"Once removed from a human being" - according to a 1971 paper</t>
-  </si>
-  <si>
     <t>Gnathostoma malaysiae</t>
   </si>
   <si>
-    <t>Studies from early 2000s suggest it may cause gnathostomiasis - are there any conclusive results?</t>
-  </si>
-  <si>
     <t>Haycocknema perplexum</t>
   </si>
   <si>
     <t>Hysterothylacium aduncum</t>
   </si>
   <si>
-    <t>One case reported but seems valid?</t>
-  </si>
-  <si>
     <t>Oesophagostomum aculeatum</t>
   </si>
   <si>
@@ -766,9 +718,6 @@
   </si>
   <si>
     <t>Paragonimus caliensis</t>
-  </si>
-  <si>
-    <t>Maybe in Mexico?</t>
   </si>
   <si>
     <t>Philophthalmus palpebrarum</t>
@@ -1139,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5037156F-44B4-FE4B-BDBF-631C80101ACE}">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204:D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2505,7 +2454,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -3262,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3273,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3284,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -3295,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -3306,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3317,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -3328,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -3339,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -3350,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -3361,7 +3310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -3372,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -3383,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -3393,13 +3342,10 @@
       <c r="C204" t="s">
         <v>4</v>
       </c>
-      <c r="D204" t="s">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -3407,13 +3353,10 @@
       <c r="C205" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D205" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -3421,13 +3364,10 @@
       <c r="C206" t="s">
         <v>4</v>
       </c>
-      <c r="D206" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -3436,9 +3376,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -3446,13 +3386,10 @@
       <c r="C208" t="s">
         <v>4</v>
       </c>
-      <c r="D208" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -3461,9 +3398,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -3472,9 +3409,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -3483,9 +3420,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -3493,13 +3430,10 @@
       <c r="C212" t="s">
         <v>4</v>
       </c>
-      <c r="D212" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -3508,9 +3442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -3518,13 +3452,10 @@
       <c r="C214" t="s">
         <v>4</v>
       </c>
-      <c r="D214" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -3532,13 +3463,10 @@
       <c r="C215" t="s">
         <v>4</v>
       </c>
-      <c r="D215" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -3546,11 +3474,8 @@
       <c r="C216" t="s">
         <v>4</v>
       </c>
-      <c r="D216" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>101</v>
       </c>
@@ -3561,9 +3486,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -3571,13 +3496,10 @@
       <c r="C218" t="s">
         <v>4</v>
       </c>
-      <c r="D218" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -3585,13 +3507,10 @@
       <c r="C219" t="s">
         <v>4</v>
       </c>
-      <c r="D219" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -3599,13 +3518,10 @@
       <c r="C220" t="s">
         <v>4</v>
       </c>
-      <c r="D220" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -3613,13 +3529,10 @@
       <c r="C221" t="s">
         <v>4</v>
       </c>
-      <c r="D221" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -3627,13 +3540,10 @@
       <c r="C222" t="s">
         <v>4</v>
       </c>
-      <c r="D222" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -3642,9 +3552,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -3653,7 +3563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>35</v>
       </c>
@@ -3663,13 +3573,10 @@
       <c r="C225" t="s">
         <v>4</v>
       </c>
-      <c r="D225" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -3677,13 +3584,10 @@
       <c r="C226" t="s">
         <v>4</v>
       </c>
-      <c r="D226" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -3692,9 +3596,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -3702,13 +3606,10 @@
       <c r="C228" t="s">
         <v>4</v>
       </c>
-      <c r="D228" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -3717,9 +3618,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -3728,9 +3629,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -3738,13 +3639,10 @@
       <c r="C231" t="s">
         <v>4</v>
       </c>
-      <c r="D231" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -3753,9 +3651,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -3764,9 +3662,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -3775,9 +3673,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -3786,9 +3684,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>1</v>
